--- a/artifacts/recipes/new_data/allrecipescom/gluten_free/gluten_breakfast-and-brunch.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/gluten_free/gluten_breakfast-and-brunch.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699656566-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Gluten-Free Breakfast and Brunch</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699656571-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZEDyScYJtqv5YoRU7-7lAADcr3c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/9111764-b9d035af147047fc89800e56685a9c53.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258358/camp-breakfast/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Camp Breakfast</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n26 mins\n\n\nTotal Time:\n41 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 slices bacon, cut crosswise into 1/4-inch pieces \n\n\n1 tablespoon olive oil\n\n\n2  white potatoes, cubed\n\n\n  salt and ground black pepper to taste\n\n\n1  onion, chopped\n\n\n4  eggs, beaten"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 slices bacon, cut crosswise into 1/4-inch pieces \n\n\n1 tablespoon olive oil\n\n\n2  white potatoes, cubed\n\n\n  salt and ground black pepper to taste\n\n\n1  onion, chopped\n\n\n4  eggs, beaten'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook and stir bacon in a skillet over medium heat until crispy, about 5 minutes. Transfer to a paper towel-lined plate to drain, discarding most of the grease."},{"recipe_directions":"Return skillet to the stove and add olive oil; heat over medium heat. Add potatoes, salt, and pepper; cook and stir until browned and somewhat crispy, about 10 minutes."},{"recipe_directions":"Mix onion into potatoes and cook until onion is translucent, about 5 minutes. Return bacon to the skillet; cook and stir until heated through, 1 to 2 minutes."},{"recipe_directions":"Pour eggs over potato mixture; cook and stir until eggs are set, 5 to 6 minutes."},{"recipe_directions":"Butter can be used in place of the olive oil, if desired."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Potatoes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"561\nCalories\n\n\n29g \nFat\n\n\n49g \nCarbs\n\n\n28g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699656579-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/FoySUV_eECEEaMEii3YlNPXYvxI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/7228181-6fc4e869ea2a41199f8771a527d0dabe.jpg"
@@ -268,59 +605,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264993/keto-diet-avocado-egg-bake/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Keto Diet Avocado Egg Bake</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large eggs\n\n\n1 medium avocado, halved and pitted\n\n\n¼ cup shredded Cheddar cheese\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 tablespoon chopped fresh parsley, or to taste (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large eggs\n\n\n1 medium avocado, halved and pitted\n\n\n¼ cup shredded Cheddar cheese\n\n\n  salt and freshly ground black pepper to taste\n\n\n1 tablespoon chopped fresh parsley, or to taste (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C). Crack each egg into a small bowl."},{"recipe_directions":"Scoop some avocado flesh out from each pit cavity to make room for one egg. Place avocado halves onto a baking sheet; gently pour an egg into each cavity."},{"recipe_directions":"Bake in the preheated oven until eggs are cooked through, 15 to 20 minutes."},{"recipe_directions":"Remove from the oven and transfer to a plate. Sprinkle Cheddar cheese on top, season with salt and pepper, and garnish with parsley."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"605\nCalories\n\n\n51g \nFat\n\n\n19g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699656584-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KdStH7LFxd-QOoI5NN410kWWpLs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2105046-e56ce8ba934e480683a5d6bfe30d5488.jpg"
@@ -333,59 +666,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239402/banana-oat-cottage-cheese-pancakes/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Banana-Oat Cottage Cheese Pancakes</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n5 \n\n\nYield:\n10 4-inch pancakes"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup gluten-free oats\n\n\n1 scoop protein powder (Optional)\n\n\n2 tablespoons brown sugar\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon baking powder"},{"recipe_ingredients":"1  banana\n\n\n2  eggs\n\n\n½ cup cottage cheese\n\n\n1 teaspoon vanilla extract\n\n\n  water as needed"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup gluten-free oats\n\n\n1 scoop protein powder (Optional)\n\n\n2 tablespoons brown sugar\n\n\n1 teaspoon ground cinnamon\n\n\n1 teaspoon baking powder'}, {'recipe_ingredients': '1  banana\n\n\n2  eggs\n\n\n½ cup cottage cheese\n\n\n1 teaspoon vanilla extract\n\n\n  water as needed'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a griddle or large skillet over medium heat."},{"recipe_directions":"Blend oatmeal, protein powder, brown sugar, cinnamon, and baking powder in a blender until fine; dump into a large bowl."},{"recipe_directions":"Blend banana, eggs, cottage cheese, and vanilla extract in a blender until smooth; pour into bowl with dry ingredients and mix into a thick batter. Stir water into the batter to thin slightly, as desired."},{"recipe_directions":"Ladle between 1/4 to 1/2 cup batter per pancake onto the preheated cooking surface. Cook until browned on the bottom, 3 to 5 minutes. Flip pancakes and continue cooking until browned on the other side and the center is set, 3 to 5 minutes more."},{"recipe_directions":"If you have a blender big enough, combine all ingredients and blend until smooth for your batter."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"},{"recipe_tags":"Banana Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"150\nCalories\n\n\n4g \nFat\n\n\n19g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699656587-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3wJdj_rZsLIsC0LXgvcxO8siG7U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4479223-7451aee876964ebb955e50fcad1964aa.jpg"
@@ -398,59 +727,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20511/cheesy-fried-potatoes/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Cheesy Fried Potatoes</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 slices bacon\n\n\n2 tablespoons butter\n\n\n1 tablespoon diced onion\n\n\n4  potatoes, peeled and sliced\n\n\n  salt and pepper to taste\n\n\n2  eggs\n\n\n½ cup shredded Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 slices bacon\n\n\n2 tablespoons butter\n\n\n1 tablespoon diced onion\n\n\n4  potatoes, peeled and sliced\n\n\n  salt and pepper to taste\n\n\n2  eggs\n\n\n½ cup shredded Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook bacon in a large, deep skillet over medium-high heat until evenly browned. Transfer to a paper towel-lined plate and crumble; leave grease in the pan."},{"recipe_directions":"Heat bacon grease over medium heat, then stir in butter. Add onion and potatoes. Cover the pan and cook, stirring occasionally, until potatoes are golden brown."},{"recipe_directions":"Crack eggs on top of potatoes and stir gently to combine. Sprinkle with salt, pepper, Cheddar, and bacon. Continue cooking until eggs are firm and cheese is melted."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Potatoes"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"338\nCalories\n\n\n19g \nFat\n\n\n31g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699656590-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qHCZgnP62E-QZb_Z2_KHUDrg7gw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3834587-ca1661737ce64123b32d3a3bab7523b1.jpg"
@@ -463,59 +788,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239758/simple-parsnip-pancakes/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Simple Parsnip Pancakes</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2 \n\n\nYield:\n4 medium pancakes"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup grated peeled parsnips\n\n\n2 small eggs\n\n\n¼ cup finely chopped onion\n\n\n1 tablespoon olive oil\n\n\n½ teaspoon salt\n\n\n½ teaspoon dried rosemary\n\n\n1 pinch ground black pepper to taste\n\n\n1 teaspoon sunflower oil, or more as needed"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup grated peeled parsnips\n\n\n2 small eggs\n\n\n¼ cup finely chopped onion\n\n\n1 tablespoon olive oil\n\n\n½ teaspoon salt\n\n\n½ teaspoon dried rosemary\n\n\n1 pinch ground black pepper to taste\n\n\n1 teaspoon sunflower oil, or more as needed'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine parsnips, eggs, onion, olive oil, salt, rosemary, and black pepper together in a bowl until batter is combined and lumpy."},{"recipe_directions":"Heat sunflower oil in a heavy frying pan over medium heat. Spoon batter into oil and fry until pancakes are brown and crispy on the edges, 6 to 7 minutes per side."},{"recipe_directions":"I used two small eggs but one large egg might be enough if you don't have small."},{"recipe_directions":"If the batter is not moist enough, add a tiny bit of liquid of your choice."},{"recipe_directions":"If you prefer a more traditional pancake, you can substitute ginger/cinnamon for the rosemary and leave out the onion."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"194\nCalories\n\n\n13g \nFat\n\n\n15g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699656593-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WDBVezvMrRwGTG7OCsaSHh3zmuM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/9044284-559342be8c2b4687a92ff3c29965d7b4.jpg"
@@ -528,59 +849,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228020/breakfast-brownies/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Breakfast Brownies</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n12 \n\n\nYield:\n1 dozen brownies"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups quick-cooking oats\n\n\n¾ cup brown sugar\n\n\n¾ cup flax seed meal\n\n\n½ cup gluten-free all purpose baking flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon salt\n\n\n1  banana, mashed\n\n\n¼ cup rice milk\n\n\n1  egg\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups quick-cooking oats\n\n\n¾ cup brown sugar\n\n\n¾ cup flax seed meal\n\n\n½ cup gluten-free all purpose baking flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon salt\n\n\n1  banana, mashed\n\n\n¼ cup rice milk\n\n\n1  egg\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Lightly grease an 8x10-inch baking pan."},{"recipe_directions":"Mix oats, brown sugar, flax seed meal, flour, baking powder, cinnamon, and salt together in a bowl. Mix banana, rice milk, egg, and vanilla extract together in a separate bowl. Pour banana mixture into flour mixture; stir to combine. Pour batter into the prepared baking pan."},{"recipe_directions":"Bake brownies in the preheated oven until a toothpick inserted in the center comes out clean, about 20 minutes. Cover pan with a towel to hold in moisture and cool brownies for at least 5 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"129\nCalories\n\n\n4g \nFat\n\n\n21g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699656597-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/OQFFWwH4Q6bmkO_3KZbFNeESPVc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/222600-86a5f2cf666047bb9c84b3f07971c5fb.jpg"
@@ -593,59 +910,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/53863/egyptian-feta-cheese-omelet-roll/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Egyptian Feta Cheese Omelet Roll</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large eggs, beaten\n\n\n½ teaspoon black pepper\n\n\n3 tablespoons crumbled feta cheese\n\n\n1 teaspoon milk\n\n\n1 tablespoon vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large eggs, beaten\n\n\n½ teaspoon black pepper\n\n\n3 tablespoons crumbled feta cheese\n\n\n1 teaspoon milk\n\n\n1 tablespoon vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a small bowl, beat eggs and pepper together. In another small bowl, combine crumbled cheese with milk."},{"recipe_directions":"Heat oil in a large nonstick skillet over medium-high heat. Pour in eggs; tilt the pan until the bottom is evenly covered. When edges appear cooked, place feta mixture in a line in the center of eggs. Using a spatula, fold eggs over the top and bottom of cheese, then fold in the sides."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Omelet Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"242\nCalories\n\n\n20g \nFat\n\n\n2g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699656601-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/c2tNfXPnizAHBHUmV4UEVAoK-eo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(319x0:321x2):format(webp)/image-448-d6127375693545598f605df7b270a64d.jpg"
@@ -659,59 +972,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16375/ham-and-cheese-breakfast-quiche/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Ham and Cheese Breakfast Quiche</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n55 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n5 \n\n\nYield:\n1 10-inch quiche"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (12 ounce) packages frozen hash brown potatoes\n\n\n⅓ cup butter, melted\n\n\n1 cup cooked diced ham\n\n\n1 cup shredded Monterey Jack cheese\n\n\n2  eggs\n\n\n½ cup heavy whipping cream"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (12 ounce) packages frozen hash brown potatoes\n\n\n⅓ cup butter, melted\n\n\n1 cup cooked diced ham\n\n\n1 cup shredded Monterey Jack cheese\n\n\n2  eggs\n\n\n½ cup heavy whipping cream'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C)."},{"recipe_directions":"Squeeze hash browns to remove excess moisture, then combine with melted butter in a small bowl. Press mixture into the bottom and up the sides of an ungreased 10-inch pie pan."},{"recipe_directions":"Bake in the preheated oven for 25 minutes."},{"recipe_directions":"Remove from the oven and arrange ham and cheese evenly over crust. In a small bowl, beat together eggs and cream; pour over ham and cheese."},{"recipe_directions":"Return to the oven and bake for 30 minutes, or until custard has completely set."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Quiche"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"461\nCalories\n\n\n33g \nFat\n\n\n25g \nCarbs\n\n\n18g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699656606-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IeX944gY_C0_h2BXysY02EO4CVs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/image-181-87ce30a0dd094461b848e45363f8385a.jpg"
@@ -725,59 +1034,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283627/chocolate-almond-breakfast-donuts/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Chocolate Almond Breakfast Donuts</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6 \n\n\nYield:\n6 donuts"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"nonstick vegetable oil cooking spray\n\n\n2 large eggs\n\n\n2 tablespoons vegetable oil\n\n\n3 tablespoons maple syrup\n\n\n1 ¼ cups finely ground almond flour\n\n\n1 ½ teaspoons baking powder\n\n\n½ teaspoon kosher salt\n\n\n2 tablespoons Dutch-process cocoa powder"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'nonstick vegetable oil cooking spray\n\n\n2 large eggs\n\n\n2 tablespoons vegetable oil\n\n\n3 tablespoons maple syrup\n\n\n1 ¼ cups finely ground almond flour\n\n\n1 ½ teaspoons baking powder\n\n\n½ teaspoon kosher salt\n\n\n2 tablespoons Dutch-process cocoa powder'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"These gluten-free, grain-free, low-carb, high-protein donutsmight not be quite as sweet and decadent as regular donuts. But to me at least, they're significantly more enjoyable than any of those supposedly healthy breakfast bars."},{"recipe_directions":"And no, I didn't forget these were frosted with chocolate. Contrary to popular belief, that isn't as \"bad\" for you as you think. If you choose a chocolate witha high percentage of cacao (70% or higher), it really doesn't contain an alarming amount of sugar — but it does feature a surprisingly high amount of fiber and disease-fighting antioxidants. Plus, studies show that chocolate makes people feel good after they eat it, so there's that."},{"recipe_directions":"Speaking of healthy, you can customize these and up the nutritional value by adding things like dried fruit, seeds, and/or nuts to the batter or topping. No, peanut M&amp;M's don't count. Save those for the time we make regular, non-breakfast donuts. Regardless of how you adapt yours, I really do hope you give these a try soon. Enjoy!"},{"recipe_directions":"For more Chef John, be sure to subscribe to Food Wishes on YouTube! Click the \"Join\" button there to get Chef John's bonus video footage and behind-the-scenes pictures, live chats, and other Food Wishes member exclusives."},{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Generously spray or brush a nonstick donut pan with cooking spray; set aside until needed."},{"recipe_directions":"Place eggs, vegetable oil, and maple syrup into a mixing bowl and whisk thoroughly until the mixture is emulsified, light, and a little bit foamy, 3 to 4 minutes. Add almond flour, baking powder, salt, and cocoa powder; mix everything together thoroughly with a spatula until all the almond flour is incorporated and you've achieved a very thick batter."},{"recipe_directions":"Transfer batter into a pastry bag, or a plastic zip-top bag with one of the corners cut off. Pipe the batter evenly into the prepared donut pan."},{"recipe_directions":"Dip a finger in water and smooth the tops of the batter to even out. Tap the pan on a work surface a few times to settle the batter even more."},{"recipe_directions":"Bake in the center of the preheated oven until a wooden skewer inserted into a donut comes out clean, 9 to 10 minutes. Let cool in the pan for 10 minutes before inverting onto a wire cooling rack. Cool completely before serving."},{"recipe_directions":"The donut pan can also be greased with soft butter."},{"recipe_directions":"You can use any fat of your choice instead of vegetable oil--butter, coconut oil, or extra-virgin olive oil, to name a few. You can use 1/4 teaspoon fine salt instead of kosher salt. Make sure to use high-quality Dutch-process cocoa powder. I used Bob's Red Mill(R) almond flour."},{"recipe_directions":"You can add a teaspoon of vanilla extract to the batter if you like."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Pastries"},{"recipe_tags":"Doughnuts"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"246\nCalories\n\n\n19g \nFat\n\n\n14g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699656612-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GDMN6nFmBUo--ZXgaakNxSlzezs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3597773-1fb39fe1172f49f68d1a585bd809e0d0.jpg"
@@ -790,59 +1095,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/237292/gluten-free-donuts/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Gluten-Free Donuts</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 quart olive oil for frying, or as needed\n\n\n5 tablespoons coconut milk\n\n\n¼ cup gluten-free all-purpose baking flour\n\n\n1  egg\n\n\n2 tablespoons almond flour\n\n\n2 tablespoons coconut flour\n\n\n2 teaspoons honey\n\n\n¼ teaspoon guar gum\n\n\n½ cup confectioners' sugar (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "1 quart olive oil for frying, or as needed\n\n\n5 tablespoons coconut milk\n\n\n¼ cup gluten-free all-purpose baking flour\n\n\n1  egg\n\n\n2 tablespoons almond flour\n\n\n2 tablespoons coconut flour\n\n\n2 teaspoons honey\n\n\n¼ teaspoon guar gum\n\n\n½ cup confectioners' sugar (Optional)"}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a deep fryer or in a large saucepan to 300 degrees F (150 degrees C)."},{"recipe_directions":"Beat coconut milk, all-purpose flour, egg, almond flour, coconut flour, honey, and guar gum together in a bowl using a hand blender until batter resembles thick pancake batter."},{"recipe_directions":"Drop batter by rounded spoonfuls, working in batches, into the hot oil; fry until donuts are dark brown, 3 to 5 minutes. Remove donuts with a slotted spoon. Pour confectioners' sugar into a shallow bowl. Roll donuts in confectioners' sugar until coated."},{"recipe_directions":"Any nut flour would work in place of the almond flour."},{"recipe_directions":"Substitute agave nectar for honey for vegan donuts."},{"recipe_directions":"Always make one test donut to check for time and texture before making the remainder."},{"recipe_directions":"Cinnamon-sugar can be used in place of the confectioners' sugar if desired."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"391\nCalories\n\n\n30g \nFat\n\n\n30g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699656617-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CF-24mIQ2I6IfKXdTb4qN4Kk7to=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4433048-2b3adf34e4624c5c83c760e8ac269e3c.jpg"
@@ -855,59 +1156,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254802/easy-flourless-banana-flax-pancakes/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Easy Flourless Banana Flax Pancakes</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n8 mins\n\n\nTotal Time:\n18 mins\n\n\nServings:\n4 \n\n\nYield:\n16 dollar-size pancakes"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  ripe banana, mashed\n\n\n2 tablespoons ground flax seeds, or more to taste\n\n\n4  eggs\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon ground cinnamon\n\n\n1 tablespoon butter"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  ripe banana, mashed\n\n\n2 tablespoons ground flax seeds, or more to taste\n\n\n4  eggs\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon ground cinnamon\n\n\n1 tablespoon butter'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix banana and ground flax seeds together in a bowl. Add eggs, baking powder, and cinnamon; beat together until combined."},{"recipe_directions":"Melt butter in a skillet over medium heat. Drop small spoonfuls of batter into the skillet. Cook until bubbles form and edges look dry, 4 to 5 minutes per side."},{"recipe_directions":"These pancakes will be very thin. Dollar-size pancakes work best. You can make this recipe without flaxseed meal and the pancakes will still hold together."},{"recipe_directions":"You can also cook these on a griddle heated to 325 degrees F (165 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"},{"recipe_tags":"Banana Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"143\nCalories\n\n\n9g \nFat\n\n\n9g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699656622-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/K95iKuMP3NDH0E5PnBNz6acx_Ns=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/7178850-3362ab8c9c2743dc9149ecfd653fd251.jpg"
@@ -920,59 +1217,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276692/keto-cheesy-bacon-and-egg-cups/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Keto Cheesy Bacon and Egg Cups</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n6 \n\n\nYield:\n6 bacon and egg cups"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 slices bacon\n\n\n  nonstick cooking spray\n\n\n5  eggs\n\n\n½ cup shredded sharp Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 slices bacon\n\n\n  nonstick cooking spray\n\n\n5  eggs\n\n\n½ cup shredded sharp Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Line a large rimmed baking sheet with foil."},{"recipe_directions":"Place slices of bacon on the prepared baking sheet."},{"recipe_directions":"Place bacon in the preheated oven and bake until partially cooked, but still pliable, about 8 minutes. Remove from the oven, and reduce temperature to 350 degrees F (180 degrees C). Let bacon rest until cool enough to handle."},{"recipe_directions":"Spray 6 cups of a muffin pan with cooking spray."},{"recipe_directions":"Whisk eggs together in a medium bowl. Wrap a slice of bacon around the inside of each prepared muffin cup. Divide Cheddar cheese amongst the 6 muffin cups and top with beaten egg."},{"recipe_directions":"Bake in the oven until eggs are set, 13 to 15 minutes."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"156\nCalories\n\n\n12g \nFat\n\n\n1g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699656627-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QYQ5aKY6mOk4DkGHazBEjA3ToQk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/5119944-cff77ccaf08c4440ac4d202dab21a87d.jpg"
@@ -985,59 +1278,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262555/perfect-gluten-free-crepes/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Perfect Gluten-Free Crêpes</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n45 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n15 \n\n\nYield:\n15 crepes"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups gluten-free all-purpose flour\n\n\n½ teaspoon salt\n\n\n½ teaspoon xanthan gum\n\n\n4  eggs\n\n\n1 ½ cups milk\n\n\n¼ cup butter, melted\n\n\n2 tablespoons softened butter, or more as needed for cooking"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups gluten-free all-purpose flour\n\n\n½ teaspoon salt\n\n\n½ teaspoon xanthan gum\n\n\n4  eggs\n\n\n1 ½ cups milk\n\n\n¼ cup butter, melted\n\n\n2 tablespoons softened butter, or more as needed for cooking'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine flour, salt, and xanthan gum in a large bowl; form a well in the center. Whisk eggs and milk together in a separate bowl and pour into the well; mix until slightly combined. Add melted butter and mix until a soft batter is formed, 1 to 2 minutes. Cover and let stand for 45 minutes."},{"recipe_directions":"Heat a lightly buttered 8-inch skillet over medium heat. Pour 2 tablespoons batter into the skillet and immediately rotate the skillet to spread batter out in a thin layer. Cook until the top of crêpe is no longer wet and the bottom has turned light brown, 1 to 2 minutes. Run a spatula around the edge of the skillet to loosen crêpe; flip crêpe and cook until the other side has turned light brown, about 1 minute more."},{"recipe_directions":"For sweet crêpes, you may add 2 tablespoons sugar and 1 teaspoon vanilla extract to the batter."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Crepes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"133\nCalories\n\n\n7g \nFat\n\n\n14g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699656634-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LFRnUv8--dE5ORgn8ckqWKcT0ns=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/385145-b3a7b817f5ea431abf3462b0c1420b9c.jpg"
@@ -1050,59 +1339,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/33176/delicious-gluten-free-pancakes/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Delicious Gluten-Free Pancakes</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n8 5-inch pancakes"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup rice flour\n\n\n3 tablespoons tapioca flour\n\n\n⅓ cup potato starch\n\n\n4 tablespoons dry buttermilk powder\n\n\n1 packet sugar substitute\n\n\n1 ½ teaspoons baking powder\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n½ teaspoon xanthan gum\n\n\n2  eggs\n\n\n3 tablespoons canola oil\n\n\n2 cups water"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup rice flour\n\n\n3 tablespoons tapioca flour\n\n\n⅓ cup potato starch\n\n\n4 tablespoons dry buttermilk powder\n\n\n1 packet sugar substitute\n\n\n1 ½ teaspoons baking powder\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n½ teaspoon xanthan gum\n\n\n2  eggs\n\n\n3 tablespoons canola oil\n\n\n2 cups water'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a bowl, mix or sift together rice flour, tapioca flour, potato starch, dry buttermilk powder, sugar substitute, baking powder, baking soda, salt, and xanthan gum. Stir in eggs, water, and oil until well blended and few lumps remain."},{"recipe_directions":"Heat a large, well-oiled skillet or griddle over medium-high heat. Spoon batter onto skillet and cook until bubbles begin to form. Flip and continue cooking until golden brown on bottom. Serve immediately with condiments of your choice."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"},{"recipe_tags":"Whole Grain Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"326\nCalories\n\n\n12g \nFat\n\n\n50g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699656641-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xfyK8FrgvaT6l2tbPnItCW2ptQU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1948x1934:1950x1936):format(webp)/254805_zucchini-waffles-green-waffles_Rita-4x3-3dbaf49995a240c8ab1585bf14bed7cb.jpg"
@@ -1116,59 +1401,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254805/zucchini-waffles-green-waffles/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Zucchini Waffles (Green Waffles)</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8 \n\n\nYield:\n8 waffles"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups shredded zucchini\n\n\n2  eggs\n\n\n1 tablespoon vegetable oil\n\n\n¼ teaspoon onion powder\n\n\n1 pinch salt\n\n\n½ cup dry potato flakes\n\n\n¼ teaspoon baking powder"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups shredded zucchini\n\n\n2  eggs\n\n\n1 tablespoon vegetable oil\n\n\n¼ teaspoon onion powder\n\n\n1 pinch salt\n\n\n½ cup dry potato flakes\n\n\n¼ teaspoon baking powder'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Mix zucchini, eggs, vegetable oil, onion powder, and salt together in a bowl. Stir in potato flakes and baking powder; mix until batter is combined."},{"recipe_directions":"Pour 1/2 cup of the batter onto the center of the waffle iron. Close the lid; cook until iron stops steaming and waffle is crisp, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"51\nCalories\n\n\n3g \nFat\n\n\n4g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699656646-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/l3x4VzSYhbsrnYe4bm_g9hQF6Lo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4559097-b1edc9dbda12430582f20fe30e878f6d.jpg"
@@ -1181,59 +1462,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260272/gluten-free-coconut-protein-pancakes/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Gluten-Free Coconut Protein Pancakes</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n8 pancakes"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup coconut flour\n\n\n1 scoop gluten-free protein powder (such as GNC Pro Performance® Isolate)\n\n\n2 large eggs\n\n\n½ cup 2% milk, or more to taste\n\n\n¼ cup unsweetened coconut flakes\n\n\n¼ cup miniature chocolate chips, or more to taste\n\n\n  olive oil cooking spray\n\n\n1 large banana\n\n\n1 teaspoon honey, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup coconut flour\n\n\n1 scoop gluten-free protein powder (such as GNC Pro Performance® Isolate)\n\n\n2 large eggs\n\n\n½ cup 2% milk, or more to taste\n\n\n¼ cup unsweetened coconut flakes\n\n\n¼ cup miniature chocolate chips, or more to taste\n\n\n  olive oil cooking spray\n\n\n1 large banana\n\n\n1 teaspoon honey, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine coconut flour and protein powder in a bowl. Whisk in eggs. Add milk, 1/4 cup at a time, mixing thoroughly until incorporated; batter should not be too thick or too runny. Sprinkle coconut flakes and chocolate chips into batter; mix well."},{"recipe_directions":"Grease a large skillet with olive oil spray and place over medium-high heat."},{"recipe_directions":"Cut banana into 24 slices. Place all slices into the skillet and fry until golden brown, about 3 minutes. Flip banana slices, add a drop of honey onto each one, and cook until caramelized, about 3 more minutes. Transfer banana slices to a plate."},{"recipe_directions":"Using 1/2 of the pancake batter, spoon four equal circles into the skillet. Press 3 banana slices into each circle and cook until bubbles form and the edges are dry, 3 to 4 minutes. Flip and cook until browned on the other side, 2 to 3 minutes. Remove to a plate and repeat to make remaining pancakes."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"239\nCalories\n\n\n11g \nFat\n\n\n27g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699656651-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ywPSNZU0ugf-kH4Cf5GuiKbLSaU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1124275-55c6192c27ab48beaa26b4cda9718d9c.jpg"
@@ -1246,59 +1523,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18280/early-morning-oven-roasted-new-potatoes/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Early Morning Oven Roasted New Potatoes</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ pounds new potatoes, cut into wedges\n\n\n4 tablespoons butter\n\n\n2 teaspoons fresh rosemary\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ pounds new potatoes, cut into wedges\n\n\n4 tablespoons butter\n\n\n2 teaspoons fresh rosemary\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C)."},{"recipe_directions":"In a hot skillet, melt butter. Stir in rosemary, salt, and pepper. Add potatoes and coat potatoes evenly with melted butter."},{"recipe_directions":"Arrange potatoes in a single layer on a baking pan."},{"recipe_directions":"Bake in the preheated oven until potatoes are golden brown, 20 to 25 minutes, tossing them occasionally to ensure that they brown on all sides."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Roasted Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"229\nCalories\n\n\n12g \nFat\n\n\n29g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699656656-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/a12Bk6paS7jb_27227QbzCM6HH0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8077741-81408b9021cd4f7ca007dd2288fdf039.jpg"
@@ -1311,59 +1584,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/48982/corned-beef-hash-cakes/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Corned Beef Hash Cakes</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon vegetable oil\n\n\n1 small onion, chopped\n\n\n2 cups leftover mashed potatoes\n\n\n  salt and pepper to taste\n\n\n1 cup shredded cooked corned beef"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon vegetable oil\n\n\n1 small onion, chopped\n\n\n2 cups leftover mashed potatoes\n\n\n  salt and pepper to taste\n\n\n1 cup shredded cooked corned beef'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet over medium heat. Fry onion in oil until translucent. Transfer to a medium bowl, and mix with mashed potatoes and corned beef. Season with salt and pepper. Form into 8 patties. Fry patties in the skillet over medium-high heat until golden brown on both sides."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Potatoes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"114\nCalories\n\n\n6g \nFat\n\n\n10g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699656662-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RUVL39BlxxfYfKw46VMoR9LwxU8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3495653-1c9238170c5f4953b2640d0fc8a9e110.jpg"
@@ -1376,59 +1645,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241231/2-ingredient-wheat-free-banana-pancakes-paleo/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2-Ingredient Wheat-Free Banana Pancakes (Paleo)</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n2 standard pancakes"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon butter\n\n\n1 large banana, broken into chunks\n\n\n1  large egg"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon butter\n\n\n1 large banana, broken into chunks\n\n\n1  large egg'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a large skillet over medium heat; add butter."},{"recipe_directions":"Mash banana chunks in a bowl using a fork until it becomes a wet consistency. Add egg and whisk mixture until batter is smooth."},{"recipe_directions":"Drop batter into the hot butter to make 2 pancakes. Cook until bubbles form and the edges are dry, about 3 minutes. Flip and cook until browned on the other side, about 2 minutes."},{"recipe_directions":"This recipe doubles easily."},{"recipe_directions":"Frying the pancakes in butter creates nice crispy edges."},{"recipe_directions":"Substitute 1 tablespoon coconut oil for the butter, if desired."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"},{"recipe_tags":"Banana Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"228\nCalories\n\n\n10g \nFat\n\n\n32g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699656667-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/vSLf4Q2cQEYep6SS3BSN7tAXm8s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6485936-2f39742a9c694fb393fed2e969a35b29.jpg"
@@ -1441,59 +1706,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21343/migas/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Migas</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  eggs\n\n\n¼ cup milk\n\n\n3 (6 inch) corn tortillas, coarsely chopped\n\n\n1 tablespoon butter\n\n\n1 tablespoon chopped green onion\n\n\n½ cup diced cooked ham\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  eggs\n\n\n¼ cup milk\n\n\n3 (6 inch) corn tortillas, coarsely chopped\n\n\n1 tablespoon butter\n\n\n1 tablespoon chopped green onion\n\n\n½ cup diced cooked ham\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a bowl, beat eggs and milk together. Soak tortilla pieces in egg mixture for 5 to 10 minutes. Meanwhile, heat butter in a skillet over medium heat. Saute green onion and ham until onion is soft, about 5 minutes."},{"recipe_directions":"Pour egg mixture into skillet and cook over medium/low heat until eggs are set."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Scrambled"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"225\nCalories\n\n\n14g \nFat\n\n\n10g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699656672-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qKsi41L5F2IcYm586E0scw-39lY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(959x0:961x2):format(webp)/8749448-3257c41b33e44c4692e11a1f741f0ed9.jpg"
@@ -1506,59 +1767,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/72190/corned-beef-potato-pancakes/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Corned Beef Potato Pancakes</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ (12 ounce) can corned beef, broken into very small chunks\n\n\n3 medium potatoes, shredded\n\n\n2  green onions, chopped\n\n\n1 large egg\n\n\n  salt and pepper to taste\n\n\n¼ cup vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ (12 ounce) can corned beef, broken into very small chunks\n\n\n3 medium potatoes, shredded\n\n\n2  green onions, chopped\n\n\n1 large egg\n\n\n  salt and pepper to taste\n\n\n¼ cup vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place corned beef into a large bowl with potatoes, green onions, and egg; season with salt and pepper. Form mixture into golf ball-sized balls."},{"recipe_directions":"Heat oil in a large skillet over medium heat. Place potato balls, a few at a time, into the hot skillet. Flatten balls with a spatula and fry until crisp and golden brown, about 7 minutes per side. Remove to a paper towel-lined plate. Repeat to cook remaining pancakes."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"260\nCalories\n\n\n9g \nFat\n\n\n29g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699656679-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yEihul_ozeX95BHj60UB3LSGIUA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5550584-almond-berry-smoothie-Kim-4x3-1-0a6dde70ce51405798b271b4d6709efb.jpg"
@@ -1572,59 +1829,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246613/almond-berry-smoothie/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Almond Berry Smoothie</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup frozen blueberries\n\n\n1  banana\n\n\n½ cup almond milk\n\n\n1 tablespoon almond butter\n\n\n  water as needed"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup frozen blueberries\n\n\n1  banana\n\n\n½ cup almond milk\n\n\n1 tablespoon almond butter\n\n\n  water as needed'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine blueberries, banana, almond milk, and almond butter in a blender; blend until smooth, adding water for a thinner smoothie."},{"recipe_directions":"Any type of frozen berry can be used in place of the blueberries, if desired."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"321\nCalories\n\n\n12g \nFat\n\n\n56g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699656688-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ai9UDllAKZreXPADIP93P002gps=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2392207-american-frittata-Scotdog-4x3-1-6ff33b2f69384f909fd91e9611f06393.jpg"
@@ -1638,59 +1891,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20020/american-frittata/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>American Frittata</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  potatoes, peeled and cubed\n\n\n½  onions, sliced\n\n\n1 tablespoon vegetable oil\n\n\n8  eggs, beaten\n\n\n¾ cup cubed ham\n\n\n  salt and pepper to taste\n\n\n¾ cup shredded Cheddar cheese"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  potatoes, peeled and cubed\n\n\n½  onions, sliced\n\n\n1 tablespoon vegetable oil\n\n\n8  eggs, beaten\n\n\n¾ cup cubed ham\n\n\n  salt and pepper to taste\n\n\n¾ cup shredded Cheddar cheese'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of salted water to a boil. Add potatoes and cook until tender but still firm, about 5 minutes. Drain and set aside to cool. Meanwhile, preheat oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"In a cast iron skillet, heat oil over medium heat. Add onions and cook slowly, stirring occasionally, until onions are soft."},{"recipe_directions":"Stir in eggs, drained potatoes, ham, salt and pepper. Cook until eggs are firm on the bottom, about 5 minutes. Top frittata with shredded cheese and place in preheated oven until cheese is melted and eggs are completely firm, about 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Potatoes"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"234\nCalories\n\n\n11g \nFat\n\n\n21g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699656695-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nmXalEO90omClErbVPd5YHpa-TQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/9381484-9e14ac6b36fa4752a52cc1ce5fdde282.jpg"
@@ -1703,59 +1952,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/48983/greek-scrambled-eggs/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Greek Scrambled Eggs</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon butter\n\n\n3  eggs\n\n\n1 teaspoon water\n\n\n½ cup crumbled feta cheese\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon butter\n\n\n3  eggs\n\n\n1 teaspoon water\n\n\n½ cup crumbled feta cheese\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat butter in a skillet over medium-high heat. Beat eggs and water together, then pour into pan. Add feta cheese, and cook, stirring occasionally to scramble. Season with salt and pepper."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Scrambled"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"257\nCalories\n\n\n21g \nFat\n\n\n2g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699656700-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Zd3-AjhQYi0eTGgs7E_lnviH9Co=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1538451-gluten-free-waffles-Buckwheat-Queen-4x3-1-3460a0febecd4387a65db1500608e88f.jpg"
@@ -1769,59 +2014,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/239606/gluten-free-waffles/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Gluten-Free Waffles</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n5 \n\n\nYield:\n5 servings"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ⅓ cups milk\n\n\n1 cup buckwheat flour\n\n\n1 cup almond flour\n\n\n⅓ cup vegetable oil\n\n\n2  eggs\n\n\n1 tablespoon baking powder\n\n\n2 teaspoons white sugar\n\n\n1 teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ⅓ cups milk\n\n\n1 cup buckwheat flour\n\n\n1 cup almond flour\n\n\n⅓ cup vegetable oil\n\n\n2  eggs\n\n\n1 tablespoon baking powder\n\n\n2 teaspoons white sugar\n\n\n1 teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions."},{"recipe_directions":"Stir milk, buckwheat, almond flour, vegetable oil, eggs, baking powder, sugar, and salt together in a bowl until batter is smooth."},{"recipe_directions":"Working in batches, ladle batter into preheated waffle iron and cook until waffles are golden and crisp, 3 to 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"278\nCalories\n\n\n19g \nFat\n\n\n23g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699656708-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8SselM8_R6H-6chcbf94UeRdy2s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3335410-43637ed686524a259ea9d0d97f071780.jpg"
@@ -1834,59 +2075,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246520/raw-chia-porridge/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Raw Chia "Porridge"</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup chia seeds\n\n\n1  banana\n\n\n2  dates, pitted\n\n\n1 cup almond milk\n\n\n¼ teaspoon ground cinnamon\n\n\n  salt to taste\n\n\n¼ cup fresh blueberries, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup chia seeds\n\n\n1  banana\n\n\n2  dates, pitted\n\n\n1 cup almond milk\n\n\n¼ teaspoon ground cinnamon\n\n\n  salt to taste\n\n\n¼ cup fresh blueberries, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place chia seeds in a bowl."},{"recipe_directions":"Layer banana and dates in a blender; add almond milk, cinnamon, and salt. Blend mixture until smooth and pour over chia seeds, stirring well. Let mixture sit until thickened, at least 15 minutes."},{"recipe_directions":"Stir chia \"porridge\" and top with blueberries."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Cereals"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"385\nCalories\n\n\n13g \nFat\n\n\n67g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699656715-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MUftYAw1QBAxYovYHP0Sd_tku0U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1116798-homemade-gluten-free-cinnamon-rolls-Burnellfam08-4x3-1-3578a348f25c4a8c88fdf48f8a96e321.jpg"
@@ -1900,59 +2137,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278995/homemade-gluten-free-cinnamon-rolls/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Homemade Gluten-Free Cinnamon Rolls</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n10 \n\n\nYield:\n10 rolls"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup white sugar\n\n\n2 ¼ teaspoons quick-rise yeast\n\n\n1 ¾ cups gluten-free all-purpose flour\n\n\n2 ½ teaspoons baking powder\n\n\n1 ½ teaspoons xanthan gum\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n⅔ cup milk\n\n\n1 tablespoon unsalted butter\n\n\n¼ cup olive oil\n\n\n1 large egg\n\n\n½ teaspoon vanilla extract\n\n\n2 tablespoons gluten-free all-purpose flour, or as needed"},{"recipe_ingredients":"½ cup brown sugar\n\n\n1 tablespoon ground cinnamon\n\n\n⅓ cup unsalted butter, melted"},{"recipe_ingredients":"2 tablespoons unsalted butter, softened\n\n\n2 tablespoons cream cheese, softened\n\n\n¾ cup powdered sugar\n\n\n½ tablespoon lemon juice\n\n\n½ teaspoon vanilla extract\n\n\n1 dash salt"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup white sugar\n\n\n2 ¼ teaspoons quick-rise yeast\n\n\n1 ¾ cups gluten-free all-purpose flour\n\n\n2 ½ teaspoons baking powder\n\n\n1 ½ teaspoons xanthan gum\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n⅔ cup milk\n\n\n1 tablespoon unsalted butter\n\n\n¼ cup olive oil\n\n\n1 large egg\n\n\n½ teaspoon vanilla extract\n\n\n2 tablespoons gluten-free all-purpose flour, or as needed'}, {'recipe_ingredients': '½ cup brown sugar\n\n\n1 tablespoon ground cinnamon\n\n\n⅓ cup unsalted butter, melted'}, {'recipe_ingredients': '2 tablespoons unsalted butter, softened\n\n\n2 tablespoons cream cheese, softened\n\n\n¾ cup powdered sugar\n\n\n½ tablespoon lemon juice\n\n\n½ teaspoon vanilla extract\n\n\n1 dash salt'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Make dough: Combine sugar and yeast in a small bowl. Mix flour, baking powder, xanthan gum, baking soda, and salt together in a separate bowl."},{"recipe_directions":"Place milk and butter in a microwave-safe bowl. Cook on high, stirring every 15 seconds, until 110 to 115 degrees F (43 to 46 degrees C), about 45 seconds. Whisk into yeast mixture and set aside to proof, about 5 minutes."},{"recipe_directions":"Combine proofed yeast with olive oil, egg, and vanilla extract in a large bowl; mix for a few seconds, then slowly add flour mixture. Mix with an electric mixer on medium-high speed until dough thickens and loses some of its stickiness, about 1 1/2 minutes."},{"recipe_directions":"Cover a work surface with plastic wrap and a light layer of flour. Place dough in the center, dust with a little more flour, and cover with another sheet of plastic wrap. Roll out to a 10x13-inch rectangle; remove the top layer of plastic wrap."},{"recipe_directions":"Make filling: Combine brown sugar and cinnamon in a small bowl. Spread melted butter over dough; sprinkle brown sugar mixture evenly over top."},{"recipe_directions":"Starting at a long edge, roll dough up like a jelly roll, using the plastic wrap to help lift and roll as you go. Lightly sprinkle dough with more flour and cut into 10 pieces with a sharp knife. Place rolls in a greased baking dish, cover with plastic wrap, and place in a warm spot to rise for 15 minutes."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Bake rolls in the preheated oven until tops are golden brown, 22 to 27 minutes."},{"recipe_directions":"Make frosting: Beat butter and cream cheese in a mixing bowl until smooth. Add powdered sugar; mix until smooth. Mix in lemon juice, vanilla extract, and salt."},{"recipe_directions":"Remove cinnamon rolls from the oven and immediately drizzle frosting over top."},{"recipe_directions":"If your gluten-free all-purpose flour already has xanthan gum, do not add extra to the dough."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"351\nCalories\n\n\n18g \nFat\n\n\n47g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699656723-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bO2vfKXFhc8PF_-kHFmrkwMLiVc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1099x1419:1101x1421):format(webp)/244389-avocado-breakfast-bowl-DDMFS-1x1-1-d839dfbb185a457bbecfd8116720acea.jpg"
@@ -1966,59 +2199,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244389/avocado-breakfast-bowl/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Avocado Breakfast Bowl</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup water\n\n\n¼ cup red quinoa\n\n\n1 ½ teaspoons olive oil\n\n\n2  eggs\n\n\n1 pinch salt and ground black pepper to taste\n\n\n¼ teaspoon seasoned salt\n\n\n¼ teaspoon ground black pepper\n\n\n1  avocado, diced\n\n\n2 tablespoons crumbled feta cheese"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup water\n\n\n¼ cup red quinoa\n\n\n1 ½ teaspoons olive oil\n\n\n2  eggs\n\n\n1 pinch salt and ground black pepper to taste\n\n\n¼ teaspoon seasoned salt\n\n\n¼ teaspoon ground black pepper\n\n\n1  avocado, diced\n\n\n2 tablespoons crumbled feta cheese'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir water and quinoa together in a rice cooker; cook until quinoa is tender, about 15 minutes."},{"recipe_directions":"Heat olive oil in a skillet over medium heat and cook eggs to desired doneness; season with seasoned salt and pepper."},{"recipe_directions":"Combine quinoa and eggs in a bowl; top with avocado and feta cheese."},{"recipe_directions":"Please note differences in ingredient amounts when following the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"372\nCalories\n\n\n27g \nFat\n\n\n24g \nCarbs\n\n\n13g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699656728-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/R5jLweksVLQRo2cJ9eaPQRTfOeU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3185077-e712800a7a144d1385ef2e0432ce6490.jpg"
@@ -2031,59 +2260,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245951/bacon-breakfast-casserole-gluten-free/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Bacon Breakfast Casserole (Gluten Free)</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n35 mins\n\n\nCook Time:\n 1 hr 15 mins\n\n\nTotal Time:\n 1 hr 50 mins\n\n\nServings:\n10 \n\n\nYield:\n1 9x13-inch casserole"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound bacon\n\n\n2 cups milk\n\n\n8  eggs\n\n\n1 teaspoon seasoned salt\n\n\n1 teaspoon ground black pepper\n\n\n2 cups shredded Cheddar cheese\n\n\n1  onion, chopped\n\n\n1  green bell pepper, chopped\n\n\n3  red potatoes, thinly sliced\n\n\n5  mushrooms, sliced"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound bacon\n\n\n2 cups milk\n\n\n8  eggs\n\n\n1 teaspoon seasoned salt\n\n\n1 teaspoon ground black pepper\n\n\n2 cups shredded Cheddar cheese\n\n\n1  onion, chopped\n\n\n1  green bell pepper, chopped\n\n\n3  red potatoes, thinly sliced\n\n\n5  mushrooms, sliced'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place bacon in a large skillet and cook over medium-high heat, turning occasionally, until evenly browned, about 10 minutes. Drain bacon slices on paper towels, reserving 1 tablespoon bacon grease. Crumble bacon into pieces."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a 9x13-inch casserole dish with reserved bacon grease."},{"recipe_directions":"Place milk, eggs, seasoned salt, and black pepper in the bowl of a stand mixer fitted with a paddle attachment. Beat on medium speed until smooth and pale, about 5 minutes. Add bacon pieces, Cheddar cheese, onion, and green bell pepper; beat until combined, about 1 1/2 minutes more."},{"recipe_directions":"Layer potato slices in the bottom of the casserole dish; pour egg mixture over potatoes and arrange sliced mushrooms on top. Cover casserole with aluminum foil."},{"recipe_directions":"Bake in the preheated oven, about 35 minutes. Remove aluminum foil and bake until eggs are set, about 30 minutes more."},{"recipe_directions":"Use any color bell pepper you like."},{"recipe_directions":"I like to use duck eggs but chicken eggs are fine."},{"recipe_directions":"If you are very sensitive to gluten, make sure you use a gluten-free seasoned salt; some of them have traces of gluten in the mixture. I use my own blend of salt, garlic powder, onion powder, and a little chili powder."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"276\nCalories\n\n\n19g \nFat\n\n\n8g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699656734-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rjtfhb1rE6sJ7q-asT3Fe_lqZoo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2235555-9f26fc5e8bb1404da25701a6d5d1fce4.jpg"
@@ -2096,59 +2321,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232829/easy-rice-flour-pancake/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Easy Rice Flour Pancake</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup rice flour\n\n\n  salt to taste\n\n\n1  egg, beaten\n\n\n1 tablespoon vegetable oil\n\n\n1 tablespoon water, or as needed\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup rice flour\n\n\n  salt to taste\n\n\n1  egg, beaten\n\n\n1 tablespoon vegetable oil\n\n\n1 tablespoon water, or as needed\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix rice flour and salt together in a bowl; form a well in the center of the mixture. Stir in egg, vegetable oil, and enough water to make a smooth batter."},{"recipe_directions":"Spray a non-stick frying pan with cooking spray and place over medium heat; pour about 1/4 cup batter into the hot pan. Tilt pan until batter covers the whole bottom surface making a thin pancake; cook for 1 minute. Flip and cook about 1 more minute. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"386\nCalories\n\n\n11g \nFat\n\n\n64g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699656740-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pGBF47iUX7rtpVGe40JdIDqt0Zw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3716403-1ea4123fe1614da1b397cf04b000fba2.jpg"
@@ -2161,59 +2382,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/19582/zucchini-and-eggs/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Zucchini and Eggs</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 teaspoons olive oil\n\n\n1 small zucchini, sliced\n\n\n1  egg, beaten\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 teaspoons olive oil\n\n\n1 small zucchini, sliced\n\n\n1  egg, beaten\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a small skillet over medium heat. Pour in oil and saute zucchini until tender. Spread out zucchini in an even layer, and pour beaten egg evenly over top. Cook until egg is firm. Season with salt and pepper to taste."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Fruits and Vegetables"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"184\nCalories\n\n\n16g \nFat\n\n\n5g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699656745-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bVxoeI5ksBboto4LJM0IDfJ-o3M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(267x409:269x411):format(webp)/2664302-amazing-almond-flour-pancakes-gluten-free-and-paleo-friendly-Buckwheat-Queen-4x3-1-e0ca817cd503410b83f3fba02c1925fc.jpg"
@@ -2227,59 +2444,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241527/amazing-almond-flour-pancakes-gluten-free-and-paleo-friendly/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Amazing Almond Flour Pancakes (Gluten-Free and Paleo-Friendly)</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup almond flour\n\n\n1 tablespoon chocolate chips (such as Enjoy Life®), or more to taste (Optional)\n\n\n½ teaspoon baking soda\n\n\n1 pinch salt\n\n\n1 pinch ground cinnamon, or to taste (Optional)\n\n\n1  egg\n\n\n1  egg white\n\n\n1 tablespoon honey\n\n\n2 teaspoons vanilla extract\n\n\n¼ cup water, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup almond flour\n\n\n1 tablespoon chocolate chips (such as Enjoy Life®), or more to taste (Optional)\n\n\n½ teaspoon baking soda\n\n\n1 pinch salt\n\n\n1 pinch ground cinnamon, or to taste (Optional)\n\n\n1  egg\n\n\n1  egg white\n\n\n1 tablespoon honey\n\n\n2 teaspoons vanilla extract\n\n\n¼ cup water, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a lightly oiled griddle to 375 degrees F (190 degrees C)."},{"recipe_directions":"Whisk almond flour, chocolate chips, baking soda, salt, and cinnamon together in a bowl. Whisk egg, egg white, honey, and vanilla extract together in a separate bowl. Stir flour mixture into egg mixture, adding enough water to reach a pancake batter consistency."},{"recipe_directions":"Drop batter by large spoonfuls onto the prepared griddle and cook until pancakes are golden brown and edges are dry, 3 to 4 minutes. Flip and cook until browned on the other side, 2 to 3 minutes. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"57\nCalories\n\n\n2g \nFat\n\n\n7g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699656750-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rjodqi3o5s0FddZXJKrBdT_uTfw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/7937208-cheesy-keto-biscuits-joie32-4x3-1-78e2802b5cf74c269608a3d36c05d732.jpg"
@@ -2293,59 +2506,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/264211/cheesy-keto-biscuits/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Cheesy Keto Biscuits</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n9 \n\n\nYield:\n9 large biscuits"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups almond flour\n\n\n1 tablespoon baking powder\n\n\n2 ½ cups shredded Cheddar cheese\n\n\n4  eggs\n\n\n¼ cup half-and-half"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups almond flour\n\n\n1 tablespoon baking powder\n\n\n2 ½ cups shredded Cheddar cheese\n\n\n4  eggs\n\n\n¼ cup half-and-half'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Combine almond flour and baking powder in a large bowl. Mix in Cheddar cheese by hand. Create a small well in the middle of the bowl; add eggs and half-and-half to the center. Use a large fork, spoon, or your hands to blend in the flour mixture until a sticky batter forms."},{"recipe_directions":"Drop 9 portions of batter onto the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until golden, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Biscuits"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"329\nCalories\n\n\n27g \nFat\n\n\n7g \nCarbs\n\n\n17g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699656756-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BQZs9S6N3LyiL2vjgXkFsxG3BdA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4478169-banana-egg-waffles-Kathleen-4x3-1-3297bcab07504ffea8f9331e9de9a939.jpg"
@@ -2359,59 +2568,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235675/banana-egg-waffles/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Banana Egg Waffles</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 waffles"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n6  eggs, beaten\n\n\n3  bananas, mashed\n\n\n½ teaspoon vanilla extract\n\n\n½ cup peanut butter, melted\n\n\n1 cup oats (Optional)\n\n\n½ cup chocolate chips (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n6  eggs, beaten\n\n\n3  bananas, mashed\n\n\n½ teaspoon vanilla extract\n\n\n½ cup peanut butter, melted\n\n\n1 cup oats (Optional)\n\n\n½ cup chocolate chips (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle iron according to manufacturer's instructions and prepare surfaces with cooking spray."},{"recipe_directions":"Whisk eggs, bananas, and vanilla extract together in a large bowl until smooth. Stir peanut butter into the egg mixture until smooth. Fold oats and chocolate chips through the egg mixture."},{"recipe_directions":"Cook batter on waffle iron according to manufacturer's instructions until golden brown, about 3 minutes."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"370\nCalories\n\n\n21g \nFat\n\n\n36g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699656761-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RjCpvGgmvH-tymlC4zdFkSymb9A=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2553483-2f8075f791a843c0871ad595979ff994.jpg"
@@ -2424,59 +2629,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244281/egg-in-a-pepper/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Egg in a Pepper</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1 \n\n\nYield:\n1 serving"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  large egg\n\n\n1 (1/4 inch thick) ring bell pepper\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  large egg\n\n\n1 (1/4 inch thick) ring bell pepper\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a non-stick skillet over medium heat. Place bell pepper ring in the hot skillet. Crack egg into bell pepper ring; cook until bottom holds together and corners are browned, 2 to 3 minutes. Flip and cook until desired doneness is reached, 2 to 3 minutes more; season with salt and ground black pepper."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"74\nCalories\n\n\n5g \nFat\n\n\n1g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699656766-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/D3zRlL5_i06psfDCs1jD5gVH7-E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4384880-05304c40da1b464c9ddb81a392de25be.jpg"
@@ -2489,59 +2690,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/168281/rice-flour-pancakes/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Rice Flour Pancakes</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3  eggs\n\n\n½ cup milk\n\n\n1 tablespoon vegetable oil\n\n\n½ teaspoon salt\n\n\n1 cup rice flour"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  eggs\n\n\n½ cup milk\n\n\n1 tablespoon vegetable oil\n\n\n½ teaspoon salt\n\n\n1 cup rice flour'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat the eggs in a mixing bowl; stir in the milk, vegetable oil, and salt. Whisk in the rice flour until no dry lumps remain. Cover the bowl and let stand at room temperature for 1 hour or in the refrigerator overnight."},{"recipe_directions":"Heat a lightly-oiled griddle over medium-high heat. Drop batter by large spoonfuls onto the griddle and cook until bubbles form and the edges are dry. Flip and cook until browned on the other side. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"487\nCalories\n\n\n17g \nFat\n\n\n67g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699656772-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/adn_FuXvdjs0o4x_xiyMjKDl4H0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5068184-easy-cloud-bread-Colleen-Brose-1x1-1-10d0edcd12224cc7a38b51b7221e7882.jpg"
@@ -2555,59 +2752,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246350/easy-cloud-bread/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Easy Cloud Bread</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n5 \n\n\nYield:\n5 servings"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3  large eggs, separated\n\n\n¼ teaspoon cream of tartar\n\n\n2 ounces cream cheese, very soft\n\n\n1 tablespoon white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  large eggs, separated\n\n\n¼ teaspoon cream of tartar\n\n\n2 ounces cream cheese, very soft\n\n\n1 tablespoon white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Beat egg whites and cream of tartar together in a bowl until stiff peaks form."},{"recipe_directions":"Mix egg yolks, cream cheese, and sugar together in a separate bowl using a wooden spoon and then mixing with a hand-held egg beater until mixture is very smooth and has no visible cream cheese. Gently fold egg whites into cream cheese mixture, taking care not to deflate the egg whites."},{"recipe_directions":"Carefully scoop mixture onto the prepared baking sheet, forming 5 to 6 \"buns\"."},{"recipe_directions":"Bake in the preheated oven until cloud bread is lightly browned, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"93\nCalories\n\n\n7g \nFat\n\n\n3g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699656777-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xiuwfxt5jjfJ_zLR-6V9r079hgE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1903761-04884107e0524438b3fe1f8c80b2713f.jpg"
@@ -2620,59 +2813,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240558/3-ingredient-pancakes/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>3-Ingredient Pancakes</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2 \n\n\nYield:\n8 mini pancakes"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large ripe banana\n\n\n2  eggs\n\n\n⅛ teaspoon baking powder\n\n\n1 pinch ground cinnamon (Optional)\n\n\n2 teaspoons butter, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large ripe banana\n\n\n2  eggs\n\n\n⅛ teaspoon baking powder\n\n\n1 pinch ground cinnamon (Optional)\n\n\n2 teaspoons butter, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mash banana in a bowl using a fork; add eggs, baking powder, and cinnamon and mix batter well."},{"recipe_directions":"Heat butter in a skillet over medium heat. Spoon batter into the hot butter and cook until bubbles form and the edges are dry, 2 to 3 minutes. Flip and cook until browned on the other side, 2 to 3 minutes. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"},{"recipe_tags":"Banana Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"169\nCalories\n\n\n9g \nFat\n\n\n16g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699656782-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/KI563vy0FcqLZTk-ievdVsBifWo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3560799-bf3b3059cb0d47f9831345b71153d51b.jpg"
@@ -2685,59 +2874,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20749/country-style-fried-potatoes/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Country-Style Fried Potatoes</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup shortening\n\n\n6 large potatoes, peeled and cubed\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon paprika"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup shortening\n\n\n6 large potatoes, peeled and cubed\n\n\n1 teaspoon salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon paprika'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat shortening in a large cast iron skillet over medium-high heat. Add potatoes and cook, stirring occasionally, until potatoes are golden brown. Season with salt, pepper, garlic powder, and paprika. Serve hot."},{"recipe_directions":"You may use oil instead of shortening if desired."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Hash Brown Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"326\nCalories\n\n\n12g \nFat\n\n\n52g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699656788-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Y64KuS-IbDnWVKhzzMelWElg2bY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/7575610-852336b315f745929a225cf154c39f53.jpg"
@@ -2750,59 +2935,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278007/almond-meal-pancakes/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Almond Meal Pancakes</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n2 \n\n\nYield:\n2 servings"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large eggs\n\n\n2 tablespoons olive oil\n\n\n2 tablespoons maple syrup\n\n\n¾ teaspoon vanilla extract\n\n\n1 pinch salt\n\n\n1 cup finely ground almond meal\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon butter, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large eggs\n\n\n2 tablespoons olive oil\n\n\n2 tablespoons maple syrup\n\n\n¾ teaspoon vanilla extract\n\n\n1 pinch salt\n\n\n1 cup finely ground almond meal\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon butter, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine eggs, olive oil, maple syrup, vanilla extract, salt, almond meal, and baking powder in a bowl. Whisk until thoroughly combined. Let batter sit for 10 minutes to marry the flavors and activate the baking powder."},{"recipe_directions":"Butter a nonstick pan or griddle over medium heat. Scoop in batter into any size pancake(s) you like. Cook until edges are set and bottom is golden brown, 2 or 3 minutes. Flip and cook until slightly springy to the touch, another 2 to 3 minutes. Repeat with remaining batter."},{"recipe_directions":"Vegetable oil or melted butter can substitute for the olive oil."},{"recipe_directions":"I used Bob's Red Mill(R) almond meal."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"497\nCalories\n\n\n31g \nFat\n\n\n31g \nCarbs\n\n\n29g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699656792-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jNfGrpetG5a6irvfObz9tDDSvGg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2388x0:2390x2):format(webp)/7666385-4d7916073ff740d083ea5f4042f01d7b.jpg"
@@ -2815,59 +2996,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278458/chaffles/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Chaffles</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2 \n\n\nYield:\n2 chaffles"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large egg\n\n\n½ cup shredded mozzarella cheese"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large egg\n\n\n½ cup shredded mozzarella cheese'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a waffle maker."},{"recipe_directions":"Whisk egg in a small bowl; stir in mozzarella cheese until batter is well combined."},{"recipe_directions":"Pour 1/2 of the batter onto the preheated waffle maker, spreading it out from the center with a spoon. Close the waffle maker and cook until steaming stops and chaffle is well-browned, about 3 minutes. Don't overcook, as that will make it chewy. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"108\nCalories\n\n\n7g \nFat\n\n\n1g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699656797-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZrdKyKLHF2INf6lNXvbkF2nxrj4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1029891-5b48c665688d425c9665133a4f887553.jpg"
@@ -2880,59 +3057,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16079/fereni-starch-pudding/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Fereni Starch Pudding</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅔ cup cornstarch\n\n\n2 cups milk, divided\n\n\n½ cup ground almonds\n\n\n6  whole cardamom seeds\n\n\n¼ cup white sugar, or to taste\n\n\n1/4 teaspoon rosewater, or to taste\n\n\n¼ cup blanched slivered almonds"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅔ cup cornstarch\n\n\n2 cups milk, divided\n\n\n½ cup ground almonds\n\n\n6  whole cardamom seeds\n\n\n¼ cup white sugar, or to taste\n\n\n1/4 teaspoon rosewater, or to taste\n\n\n¼ cup blanched slivered almonds'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dissolve cornstarch in 1 cup milk in a small bowl; set aside."},{"recipe_directions":"Combine remaining 1 cup milk, ground almonds, and cardamom in a medium pot; bring to a boil. Reduce heat to medium and whisk in cornstarch mixture. Mix in sugar and rosewater. Allow pudding to boil, stirring constantly, for about 3 minutes."},{"recipe_directions":"Remove cardamom seeds and pour pudding into serving dishes. Garnish with slivered almonds and serve warm or cold."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Cuisine"},{"recipe_tags":"Middle Eastern"},{"recipe_tags":"Persian"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"222\nCalories\n\n\n10g \nFat\n\n\n29g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699656802-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GmAtoa-DGQwNTGdPk0tOKMAPask=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/578209-2795f18cbbbc4609bb2aa38166299b81.jpg"
@@ -2945,59 +3118,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/57947/authentic-huevos-rancheros/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Easy Huevos Rancheros</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons vegetable oil, or more if needed\n\n\n4 (6 inch) corn tortillas\n\n\n1 cup refried beans with green chiles\n\n\n1 teaspoon butter\n\n\n4 large eggs\n\n\n1 cup shredded Cheddar cheese\n\n\n8 slices bacon, cooked and crumbled\n\n\n½ cup salsa (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons vegetable oil, or more if needed\n\n\n4 (6 inch) corn tortillas\n\n\n1 cup refried beans with green chiles\n\n\n1 teaspoon butter\n\n\n4 large eggs\n\n\n1 cup shredded Cheddar cheese\n\n\n8 slices bacon, cooked and crumbled\n\n\n½ cup salsa (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a large skillet over medium-high heat. Fry two tortillas at a time in the hot skillet until firm, but not crisp, about 30 seconds per side. Drain on paper towels."},{"recipe_directions":"Reduce the heat to medium, and add more oil to the skillet if dry. Crack in eggs and cook until the outer edges become opaque, about 1 minute. Cover, reduce the heat to low, and cook until the whites are completely set, about 4 minutes."},{"recipe_directions":"While the eggs are cooking, combine refried beans and butter in a microwave-safe dish. Cover and microwave on high in 1-minute intervals until hot."},{"recipe_directions":"Place tortillas onto plates and spread with a layer of hot refried beans. Top with Cheddar, a fried egg, crumbled bacon, and salsa."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Breakfast Burrito Recipes"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"494\nCalories\n\n\n33g \nFat\n\n\n24g \nCarbs\n\n\n27g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699656807-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DFmSrGX_LFKrGqAdrig-V1hy8Nc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(994x830:996x832):format(webp)/33129-corned-beef-hash-cindy-mendenhall-rosenberg-3389295-4x3-8462603bb3814f8c92b38c07981d9216.jpg"
@@ -3011,59 +3180,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/33129/corned-beef-hash/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Corned Beef Hash</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 large potatoes, peeled and diced\n\n\n1 (12 ounce) can corned beef, cut into chunks\n\n\n1  medium onion, chopped\n\n\n1 cup beef broth"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 large potatoes, peeled and diced\n\n\n1 (12 ounce) can corned beef, cut into chunks\n\n\n1  medium onion, chopped\n\n\n1 cup beef broth'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine potatoes, corned beef, onion, and broth in a large, deep skillet over medium heat. Cover and simmer until potatoes are soft enough to mash and liquid is almost gone. Mix well and serve hot."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Potatoes"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"434\nCalories\n\n\n9g \nFat\n\n\n66g \nCarbs\n\n\n23g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699656812-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Tp8D8s3n70a9rQq75CHjoK-TmpQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(699x0:701x2):format(webp)/6106185-feta-eggs-Suada-Fteja-1x1-1-f57533f20b744adfbddd9aec3016101b.jpg"
@@ -3077,59 +3242,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/50648/feta-eggs/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Feta Eggs</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon butter\n\n\n¼ cup chopped onion\n\n\n4  eggs, beaten\n\n\n¼ cup chopped tomatoes\n\n\n2 tablespoons crumbled feta cheese\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon butter\n\n\n¼ cup chopped onion\n\n\n4  eggs, beaten\n\n\n¼ cup chopped tomatoes\n\n\n2 tablespoons crumbled feta cheese\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a skillet over medium heat. Saute onions until translucent. Pour in eggs. Cook, stirring occasionally to scramble. When eggs appear almost done, stir in chopped tomatoes and feta cheese, and season with salt and pepper. Cook until cheese is melted."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Scrambled"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"116\nCalories\n\n\n9g \nFat\n\n\n2g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699656816-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Uiw_liHvDf6lp31gdFdExwXJSUU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2642x0:2644x2):format(webp)/9442947-28119cb060704765a14389e4667a8ae8.jpg"
@@ -3142,59 +3303,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18028/potato-pancakes-ii/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Easy Leftover Potato Pancakes</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n5 \n\n\nYield:\n10 pancakes"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups mashed potatoes\n\n\n¼ cup shredded Cheddar cheese\n\n\n1 large egg, beaten\n\n\n1 teaspoon salt\n\n\n1 tablespoon butter\n\n\n1/2 cup to 3/4 cup all-purpose flour as needed (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups mashed potatoes\n\n\n¼ cup shredded Cheddar cheese\n\n\n1 large egg, beaten\n\n\n1 teaspoon salt\n\n\n1 tablespoon butter\n\n\n1/2 cup to 3/4 cup all-purpose flour as needed (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix potatoes, cheese, beaten egg, and salt in a medium bowl until well combined. If the mixture is very wet, mix in flour as needed to bind mixture together."},{"recipe_directions":"Melt butter on a large griddle over medium heat. Drop potato mixture onto the hot griddle, 1/4 cup at a time. Flatten each pancake with the back of a spatula to 1/2-inch thickness. Fry until golden brown, about 5 minutes per side. Serve hot."},{"recipe_directions":"This recipe was tested in our test kitchen and updated to include flour to act as a binder if needed."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"254\nCalories\n\n\n15g \nFat\n\n\n24g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699656820-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UWilMAJfDkhPTxU24PFgsx5cmAs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x999:1001x1001):format(webp)/245362-Chef-Johns-Shakshukai-DDMFS-1x1-1-9b8332eb939f40dea0c7739c5d1c44c4.jpg"
@@ -3208,59 +3365,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245362/chef-johns-shakshuka/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Chef John's Shakshuka</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 large onion, diced\n\n\n½ cup sliced fresh mushrooms\n\n\n1 teaspoon salt, plus more to taste \n\n\n1 cup diced red bell pepper\n\n\n1 jalapeño pepper, seeded and sliced\n\n\n1 teaspoon cumin\n\n\n½ teaspoon paprika\n\n\n½ teaspoon ground turmeric\n\n\n½ teaspoon freshly ground black pepper, plus more to taste \n\n\n¼ teaspoon cayenne pepper\n\n\n1 (28 ounce) can crushed San Marzano tomatoes, or other high-quality plum tomatoes\n\n\n½ cup water, or more as needed\n\n\n6  large eggs\n\n\n2 tablespoons crumbled feta cheese\n\n\n2 tablespoons chopped fresh parsley"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 large onion, diced\n\n\n½ cup sliced fresh mushrooms\n\n\n1 teaspoon salt, plus more to taste \n\n\n1 cup diced red bell pepper\n\n\n1 jalapeño pepper, seeded and sliced\n\n\n1 teaspoon cumin\n\n\n½ teaspoon paprika\n\n\n½ teaspoon ground turmeric\n\n\n½ teaspoon freshly ground black pepper, plus more to taste \n\n\n¼ teaspoon cayenne pepper\n\n\n1 (28 ounce) can crushed San Marzano tomatoes, or other high-quality plum tomatoes\n\n\n½ cup water, or more as needed\n\n\n6  large eggs\n\n\n2 tablespoons crumbled feta cheese\n\n\n2 tablespoons chopped fresh parsley'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a large, heavy skillet over medium-high heat. Add onion and mushrooms; season with salt. Cook and stir until mushrooms release all of their liquid and start to brown, about 10 minutes."},{"recipe_directions":"Add bell pepper and jalapeño pepper. Cook and stir until peppers begin to soften, about 5 minutes. Season with cumin, paprika, turmeric, black pepper, and cayenne. Cook and stir to \"wake up\" the flavors, about 1 minute."},{"recipe_directions":"Stir in tomatoes and water. Reduce heat to medium. Simmer uncovered, stirring occasionally, until vegetables are softened and sweet, 15 to 20 minutes. Add more water if sauce becomes too thick."},{"recipe_directions":"Use a large spoon to make a depression in sauce for each egg. Crack an egg into a small ramekin and slide gently into an indentation; repeat with remaining eggs. Season eggs with salt and pepper. Cover and cook until eggs reach desired doneness."},{"recipe_directions":"Top with feta cheese and parsley to serve."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"185\nCalories\n\n\n11g \nFat\n\n\n15g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699656825-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WFgbd1C7nsnBeaLP4RyGfinuLE0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3834918-63a3a06f1c2547e6a378b5dfa471b3d9.jpg"
@@ -3273,59 +3426,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240545/flourless-banana-pancakes/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Flourless Banana Pancakes</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  very ripe banana, mashed\n\n\n2 large eggs, beaten\n\n\n2 tablespoons ground flax seed (Optional)\n\n\n¼ teaspoon pure vanilla extract (Optional)\n\n\n2 tablespoons coconut oil"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  very ripe banana, mashed\n\n\n2 large eggs, beaten\n\n\n2 tablespoons ground flax seed (Optional)\n\n\n¼ teaspoon pure vanilla extract (Optional)\n\n\n2 tablespoons coconut oil'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together mashed banana and beaten eggs in a large bowl until smooth. Add ground flax seed and vanilla; mix until batter is well combined."},{"recipe_directions":"Heat coconut oil in a large skillet over medium-low heat. Scoop batter, about 1/4 cup per pancake, onto the skillet and cook until the centers start to bubble, about 30 seconds. Flip pancakes and continue cooking until the bottoms are lightly browned, 1 to 2 minutes more. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"},{"recipe_tags":"Banana Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"245\nCalories\n\n\n18g \nFat\n\n\n14g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699656828-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ApsgteNdmn1RbjF2NYRG1ZA6Mw8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6375609-spam-and-eggs-Amanda-Bagin-4x3-1-98414cfbba5d4bcb890f1a15d41d8230.jpg"
@@ -3339,59 +3488,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/39747/spam-and-eggs/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Spam and Eggs</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large eggs, beaten\n\n\n1 (12 ounce) container fully cooked luncheon meat (e.g. Spam), cubed\n\n\n2 ounces Cheddar cheese, grated"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large eggs, beaten\n\n\n1 (12 ounce) container fully cooked luncheon meat (e.g. Spam), cubed\n\n\n2 ounces Cheddar cheese, grated'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat a nonstick skillet over medium heat. Pour eggs into the skillet, then scatter luncheon meat over top. Cook and stir until eggs are nearly set, 3 to 4 minutes. Sprinkle cheese over top and stir until cheese is melted, 1 to 2 minutes."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"707\nCalories\n\n\n60g \nFat\n\n\n6g \nCarbs\n\n\n36g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699656832-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1Q1Uuqr7QZK8lkzPoKAx510J-hw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/9088917-58151af8dd1a42338737143f243f04be.jpg"
@@ -3404,59 +3549,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283581/almond-flour-blueberry-muffins/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Almond Flour Blueberry Muffins</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n12 \n\n\nYield:\n12 muffins"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups finely ground almond flour\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n¼ cup coconut oil, melted and cooled\n\n\n¼ cup pure maple syrup\n\n\n3 large eggs\n\n\n1 tablespoon lemon zest\n\n\n1 teaspoon vanilla extract\n\n\n1 cup frozen blueberries"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups finely ground almond flour\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n¼ cup coconut oil, melted and cooled\n\n\n¼ cup pure maple syrup\n\n\n3 large eggs\n\n\n1 tablespoon lemon zest\n\n\n1 teaspoon vanilla extract\n\n\n1 cup frozen blueberries'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a 12-cup muffin tin with paper liners."},{"recipe_directions":"Whisk almond flour, baking soda, and salt together in a large bowl. Add coconut oil, maple syrup, eggs, lemon zest, and vanilla; mix until combined. Fold in frozen blueberries and spoon into the prepared muffin cups."},{"recipe_directions":"Bake in the preheated oven until tops spring back when lightly pressed, 18 to 20 minutes. Cool in the tin for 5 minutes. Transfer to a wire rack to cool completely."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Muffin Recipes"},{"recipe_tags":"Blueberry Muffin Recipes"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"203\nCalories\n\n\n16g \nFat\n\n\n11g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699656835-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/O8zCIqtODCIF7HxLwJxqI2Hdynw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2033x1270:2035x1272):format(webp)/257530-Scrambled-Eggs-in-a-Mug-DDMFS-4x3-7-330a17f33cb9490b89f93943e89d54ad.jpg"
@@ -3470,59 +3611,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/257530/scrambled-eggs-in-a-mug/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Scrambled Eggs in a Mug</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Cook Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large egg\n\n\n1 tablespoon milk\n\n\n1 pinch ground black pepper (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large egg\n\n\n1 tablespoon milk\n\n\n1 pinch ground black pepper (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Crack egg into a microwave-safe mug; beat until even in color."},{"recipe_directions":"Pour in milk and beat until light yellow in color."},{"recipe_directions":"Microwave on high until cooked through and fluffy, about 90 seconds. Season with pepper and serve."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Scrambled"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"82\nCalories\n\n\n5g \nFat\n\n\n2g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699656839-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lxkjppFlo9e5oOOfBqfOAtBfbVw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2591x0:2593x2):format(webp)/7618556-0d17f28400984b19b55f014891f43294.jpg"
@@ -3535,59 +3672,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278328/chaffles-with-almond-flour/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Chaffles with Almond Flour</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2 \n\n\nYield:\n2 4-inch chaffles"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large egg\n\n\n1 tablespoon blanched almond flour\n\n\n¼ teaspoon baking powder\n\n\n½ cup shredded mozzarella cheese\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large egg\n\n\n1 tablespoon blanched almond flour\n\n\n¼ teaspoon baking powder\n\n\n½ cup shredded mozzarella cheese\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk egg, almond flour, and baking powder together in a bowl. Stir in mozzarella cheese; set batter aside."},{"recipe_directions":"Preheat a waffle iron according to the manufacturer's instructions."},{"recipe_directions":"Spray both sides of the preheated waffle iron with cooking spray. Pour 1/2 of the batter onto the waffle iron and spread it out from the center with a spoon. Close the waffle maker and cook until chaffle reaches your desired doneness, about 3 minutes. Carefully lift chaffle out of the waffle iron and repeat with remaining batter. Allow chaffles to cool and crisp up, about 2 to 3 minutes."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Waffle Recipes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"132\nCalories\n\n\n9g \nFat\n\n\n2g \nCarbs\n\n\n11g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699656843-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/K6lvfJg5NBDAZVuvs7S7jq-SRsQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1530x1262:1532x1264):format(webp)/260511-Fluffy-Gluten-Free-Pancakes-ddmfs-4x3-139-3a176c822a884b74a36259d218b6c916.jpg"
@@ -3601,59 +3734,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/260511/fluffy-gluten-free-pancakes/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Fluffy Gluten-Free Pancakes</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup all-purpose gluten-free flour\n\n\n½ teaspoon gluten-free baking powder\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground cinnamon\n\n\n1 large egg\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon vanilla extract\n\n\n½ cup cold milk, or more as needed\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup all-purpose gluten-free flour\n\n\n½ teaspoon gluten-free baking powder\n\n\n½ teaspoon salt\n\n\n½ teaspoon ground cinnamon\n\n\n1 large egg\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon vanilla extract\n\n\n½ cup cold milk, or more as needed\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Whisk flour, baking powder, salt, and cinnamon together in a bowl until well combined."},{"recipe_directions":"Whisk egg, vegetable oil, and vanilla together in a second bowl until well combined. Gradually stir dry ingredients into wet ingredients with a wooden spoon until incorporated; batter should still be still lumpy."},{"recipe_directions":"Add milk and mix until batter is smooth. Let sit until thickened, 5 to 10 minutes. Stir in more milk, 1 tablespoon at a time, if batter is too thick."},{"recipe_directions":"Spray a griddle with cooking spray and preheat over medium-low heat."},{"recipe_directions":"Working in batches, drop 1 to 2 heaping tablespoonfuls onto the preheated griddle for each pancake. Cook until bubbles form and the edges are dry, 3 to 4 minutes. Flip and cook until browned on the other side, 2 to 3 minutes."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"90\nCalories\n\n\n3g \nFat\n\n\n14g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699656846-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/nGI9suP0S22RHr00XrRFYCRg8Vk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3365053-lolas-horchata-KGora-4x3-f927b7fff4a8443480e08ccd7965a755.jpg"
@@ -3667,59 +3796,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/141828/lolas-horchata/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Horchata</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nAdditional Time:\n 3 hrs\n\n\nTotal Time:\n 3 hrs 10 mins\n\n\nServings:\n6 \n\n\nYield:\n6 cups"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 cups water\n\n\n1 cup uncooked white long-grain rice\n\n\n⅔ cup white sugar\n\n\n½ cup milk\n\n\n½ tablespoon vanilla extract\n\n\n½ tablespoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 cups water\n\n\n1 cup uncooked white long-grain rice\n\n\n⅔ cup white sugar\n\n\n½ cup milk\n\n\n½ tablespoon vanilla extract\n\n\n½ tablespoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This creamy horchata recipe is indulgent and refreshing."},{"recipe_directions":"Horchata (a.k.a. orxata) is a sweet Latin American drink made from white rice. There are many kinds of horchata, including the cinnamon-spiced Mexican variety. The creamy beverage is served chilled over ice."},{"recipe_directions":"These are the simple ingredients you’ll need to make this homemade horchata recipe (you likely already have most of them at home):"},{"recipe_directions":"You’ll find the full, step-by-step recipe below — but here’s a brief overview of what you can expect when you make horchata at home:"},{"recipe_directions":"Yes, you can make the horchata up to two days in advance. Store it in an airtight container in the refrigerator until you’re ready to serve. It will last for up to four days, but it’ll taste best in the first 48 hours or so."},{"recipe_directions":"“This is the best horchata recipe I have ever found,” raves Rachel Hanks. “I found that ground cinnamon floats on the top so I let 2 cinnamon sticks soak with the rice and water for 3 hours. Nice flavor!”"},{"recipe_directions":"“Delicious, refreshing, and tastes authentic,” says Joshua Bentley. “Let it soak for more than 3 hours for even creamier richness.”"},{"recipe_directions":"“I doubled the recipe to make enough to last 2 days,” according to jmeza602. “When I doubled the recipe, I also let the rice water sit overnight before mixing everything together.”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Pour water and rice into a blender; mix until rice begins to break up, about 1 minute. Let rice and water stand at room temperature for at least 3 hours."},{"recipe_directions":"Strain rice water into a pitcher and discard rice. Stir in sugar, milk, vanilla, and cinnamon."},{"recipe_directions":"Chill thoroughly before serving over ice."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Cuisine"},{"recipe_tags":"Latin American"},{"recipe_tags":"Mexican"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"213\nCalories\n\n\n1g \nFat\n\n\n48g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699656850-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QQB-DaoV4KQTqkFZ52n78wox76g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(424x0:426x2):format(webp)/2273713-chakchouka-shakshouka-lucy-1x1-1-a05f8534ec944c77b294538d0fc6b6d2.jpg"
@@ -3733,59 +3858,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213717/chakchouka-shakshouka/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Chakchouka (Shakshouka)</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 tablespoons olive oil\n\n\n1 ⅓ cups chopped onion\n\n\n1 cup thinly sliced bell peppers, any color\n\n\n2 cloves garlic, minced, or to taste\n\n\n2 ½ cups chopped tomatoes\n\n\n1  hot chile pepper, seeded and finely chopped, or to taste\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon paprika\n\n\n1 teaspoon salt\n\n\n4 large eggs"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 tablespoons olive oil\n\n\n1 ⅓ cups chopped onion\n\n\n1 cup thinly sliced bell peppers, any color\n\n\n2 cloves garlic, minced, or to taste\n\n\n2 ½ cups chopped tomatoes\n\n\n1  hot chile pepper, seeded and finely chopped, or to taste\n\n\n1 teaspoon ground cumin\n\n\n1 teaspoon paprika\n\n\n1 teaspoon salt\n\n\n4 large eggs'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a skillet over medium heat. Stir in onion, bell pepper, and garlic; cook and stir until vegetables have softened and onion has turned translucent, about 5 minutes."},{"recipe_directions":"Meanwhile, mix together tomatoes, chile pepper, cumin, paprika, and salt in a bowl."},{"recipe_directions":"Stir tomato mixture into onion mixture. Simmer, uncovered, until tomato juices have cooked off, about 10 minutes."},{"recipe_directions":"Make 4 indentations in tomato mixture; crack eggs into indentations. Cover the skillet and cook until eggs are firm but not dry, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"209\nCalories\n\n\n15g \nFat\n\n\n13g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699656853-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/W1OO-RsRSqU5tYNpVnrGcAktGgQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/5192971-dfb57819b2374fdabed1826dac1c7431.jpg"
@@ -3798,59 +3919,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/263032/90-second-keto-bread-in-a-mug/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>90-Second Keto Bread in a Mug</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n2 mins\n\n\nAdditional Time:\n2 mins\n\n\nTotal Time:\n9 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon butter\n\n\n⅓ cup blanched almond flour\n\n\n1  egg\n\n\n½ teaspoon baking powder\n\n\n1 pinch salt"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon butter\n\n\n⅓ cup blanched almond flour\n\n\n1  egg\n\n\n½ teaspoon baking powder\n\n\n1 pinch salt'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Microwave butter in a microwave-safe mug until melted, about 15 seconds. Swirl the mug to coat with butter."},{"recipe_directions":"Add almond flour, egg, baking powder, and salt to the mug; whisk until smooth."},{"recipe_directions":"Microwave on high until set, about 90 seconds. Let cool for 2 minutes before slicing."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Healthy Recipes"},{"recipe_tags":"Keto Diet Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"408\nCalories\n\n\n36g \nFat\n\n\n10g \nCarbs\n\n\n15g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699656857-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zRbtL5KAEJGySfxMrFja9cP1uHo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/21672-SauteedApples-ddmfs-Step5-0055-00e1950fab834d7a9d988794925e1bc5.jpg"
@@ -3864,59 +3981,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21672/sauteed-apples/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Sautéed Apples</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n8 \n\n\nYield:\n4 cups"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup butter\n\n\n4 large tart apples - peeled, cored and sliced 1/4 inch thick\n\n\n½ cup cold water\n\n\n2 teaspoons cornstarch\n\n\n½ cup brown sugar\n\n\n½ teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup butter\n\n\n4 large tart apples - peeled, cored and sliced 1/4 inch thick\n\n\n½ cup cold water\n\n\n2 teaspoons cornstarch\n\n\n½ cup brown sugar\n\n\n½ teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a large skillet or saucepan over medium heat."},{"recipe_directions":"Add apples and cook, stirring constantly, until almost tender, 6 to 7 minutes."},{"recipe_directions":"Mix water and cornstarch together in a small bowl until cornstarch is dissolved; pour over apples. Stir in brown sugar and cinnamon. Bring to a boil for 2 minutes, stirring occasionally."},{"recipe_directions":"Remove from heat and serve warm."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"143\nCalories\n\n\n6g \nFat\n\n\n24g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699656861-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zmmUsa_CgKOAFCLB2lZ0F0YQRIM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(979x1049:981x1051):format(webp)/4520180-baby-spinach-omelet-France-C-4x3-1-49c3c8b869774bc8a71d2c097068ed62.jpg"
@@ -3930,59 +4043,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/69471/baby-spinach-omelet/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Baby Spinach Omelet</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  eggs\n\n\n1 cup torn baby spinach leaves\n\n\n1 ½ tablespoons grated Parmesan cheese\n\n\n¼ teaspoon onion powder\n\n\n⅛ teaspoon ground nutmeg\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  eggs\n\n\n1 cup torn baby spinach leaves\n\n\n1 ½ tablespoons grated Parmesan cheese\n\n\n¼ teaspoon onion powder\n\n\n⅛ teaspoon ground nutmeg\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat eggs in a bowl, and stir in baby spinach and Parmesan cheese. Season with onion powder, nutmeg, salt, and pepper."},{"recipe_directions":"Spray a small skillet with cooking spray and place over medium heat. Once warm, add in the egg mixture and cook until partially set, about 3 minutes. Flip with a spatula, and continue cooking, 2 to 3 minutes."},{"recipe_directions":"Reduce heat to low and continue cooking, 2 to 3 minutes, or until omelet reaches desired doneness."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Eggs"},{"recipe_tags":"Omelet Recipes"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"186\nCalories\n\n\n12g \nFat\n\n\n3g \nCarbs\n\n\n16g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699656865-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_STqjksyZ7v7vLQL2AjC7s9Aog4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1088029-05770ae06db54b09bece1c8e92790c25.jpg"
@@ -3996,59 +4105,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/234702/quick-almond-flour-pancakes/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Quick Almond Flour Pancakes</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 pancakes"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup almond flour\n\n\n¼ cup water\n\n\n2  eggs\n\n\n1 tablespoon maple syrup\n\n\n¼ teaspoon salt\n\n\n1 teaspoon oil, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup almond flour\n\n\n¼ cup water\n\n\n2  eggs\n\n\n1 tablespoon maple syrup\n\n\n¼ teaspoon salt\n\n\n1 teaspoon oil, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together almond flour, water, eggs, maple syrup, and salt in a large bowl until smooth."},{"recipe_directions":"Heat oil on a griddle over medium heat."},{"recipe_directions":"Drop batter by large spoonfuls onto the griddle. Cook until bubbles form and edges are dry, 3 to 5 minutes. Flip and cook until bottoms are browned, 3 to 5 minutes. Repeat with remaining batter."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Pancake Recipes"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"240\nCalories\n\n\n19g \nFat\n\n\n10g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699656868-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17685/healthy-recipes/gluten-free/breakfast-and-brunch/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3s5228tNpN8LkDFGDVlZR73U3ew=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(562x0:564x2):format(webp)/6067388-0b791d3bd4ff4d3396db6c92a85c97a6.jpg"
@@ -4061,42 +4166,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/6953/hot-water-cornbread/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Hot Water Cornbread</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n6 \n\n\nYield:\n12 cakes"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup cornmeal\n\n\n1 teaspoon salt\n\n\n1 teaspoon white sugar\n\n\n¾ cup boiling water\n\n\n1 tablespoon bacon grease\n\n\n1 cup bacon grease, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup cornmeal\n\n\n1 teaspoon salt\n\n\n1 teaspoon white sugar\n\n\n¾ cup boiling water\n\n\n1 tablespoon bacon grease\n\n\n1 cup bacon grease, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine cornmeal, salt, and sugar in a medium bowl. Add boiling water and 1 tablespoon bacon grease; stir until bacon grease melts melts."},{"recipe_directions":"Pour bacon grease to a depth of 1/2-inch in a large skillet; heat to 375 degrees F (190 degrees C)."},{"recipe_directions":"Shape cornmeal mixture into 12 flattened balls using a heaping tablespoon as a measuring guide."},{"recipe_directions":"Fry, turning once, in hot oil until crisp and golden brown, about 5 minutes. Drain on paper towels and serve warm."},{"recipe_directions":""}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Cornbread Recipes"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"95\nCalories\n\n\n3g \nFat\n\n\n16g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>